--- a/Assets/Example/Configs/Xlsx/Xlsx1.xlsx
+++ b/Assets/Example/Configs/Xlsx/Xlsx1.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Red/Projects/ConfigManager-Example/Assets/Example/Configs/Xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>装备ID</t>
   </si>
@@ -58,9 +68,6 @@
     <t>武器模型</t>
   </si>
   <si>
-    <t>宝箱系数</t>
-  </si>
-  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -242,19 +249,56 @@
   </si>
   <si>
     <t>1022,0.2,0.5;1072,0.02,0.05;1042,0.05,0.2;1052,0.05,0.2</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱系数宝箱系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字神</t>
+    <rPh sb="0" eb="1">
+      <t>ming'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是神</t>
+    <rPh sb="0" eb="1">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,345 +307,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -609,251 +329,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -862,57 +340,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1179,17 +610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,112 +663,121 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>601110</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1362,18 +801,21 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>601111</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1385,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1001</v>
@@ -1402,16 +844,19 @@
       <c r="O5">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>601112</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1423,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1001</v>
@@ -1440,16 +885,19 @@
       <c r="O6">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>601113</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1461,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>1001</v>
@@ -1479,15 +927,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>601114</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1499,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>1001</v>
@@ -1514,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -1523,15 +971,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>601210</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1558,15 +1006,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>601211</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1578,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>1011</v>
@@ -1596,15 +1044,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>601212</v>
       </c>
       <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1616,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>1011</v>
@@ -1634,15 +1082,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>601213</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1654,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>1011</v>
@@ -1672,15 +1120,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>601214</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1692,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>1011</v>
@@ -1707,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1716,15 +1164,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>601310</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1751,15 +1199,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>601311</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1771,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <v>1021</v>
@@ -1789,15 +1237,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>601312</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1809,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>1021</v>
@@ -1827,15 +1275,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>601313</v>
       </c>
       <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1847,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17">
         <v>1021</v>
@@ -1865,15 +1313,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>601314</v>
       </c>
       <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1885,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18">
         <v>1021</v>
@@ -1900,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1910,7 +1358,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/Assets/Example/Configs/Xlsx/Xlsx1.xlsx
+++ b/Assets/Example/Configs/Xlsx/Xlsx1.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Red/Projects/ConfigManager-Example/Assets/Example/Configs/Xlsx/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
+    <workbookView windowWidth="28695" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Equip" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>装备ID</t>
   </si>
@@ -68,6 +58,9 @@
     <t>武器模型</t>
   </si>
   <si>
+    <t>宝箱系数宝箱系数</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -249,56 +242,19 @@
   </si>
   <si>
     <t>1022,0.2,0.5;1072,0.02,0.05;1042,0.05,0.2;1052,0.05,0.2</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱系数宝箱系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字神</t>
-    <rPh sb="0" eb="1">
-      <t>ming'zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是神</t>
-    <rPh sb="0" eb="1">
-      <t>wo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,21 +263,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -329,9 +609,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -340,10 +862,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -610,16 +1179,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,121 +1233,112 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>601110</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -803,19 +1364,16 @@
       <c r="O4">
         <v>1.23</v>
       </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>601111</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -827,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1001</v>
@@ -844,19 +1402,16 @@
       <c r="O5">
         <v>1.05</v>
       </c>
-      <c r="P5" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>601112</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -868,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1001</v>
@@ -885,19 +1440,16 @@
       <c r="O6">
         <v>1.05</v>
       </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>601113</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -909,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>1001</v>
@@ -927,15 +1479,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>601114</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -947,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>1001</v>
@@ -962,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -971,15 +1523,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>601210</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1006,15 +1558,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>601211</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1026,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <v>1011</v>
@@ -1044,15 +1596,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>601212</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1064,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>1011</v>
@@ -1082,15 +1634,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>601213</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1102,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>1011</v>
@@ -1120,15 +1672,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>601214</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1140,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>1011</v>
@@ -1155,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -1164,15 +1716,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>601310</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1199,15 +1751,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>601311</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1219,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>1021</v>
@@ -1237,15 +1789,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>601312</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1257,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16">
         <v>1021</v>
@@ -1275,15 +1827,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>601313</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1295,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17">
         <v>1021</v>
@@ -1313,15 +1865,15 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>601314</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1333,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18">
         <v>1021</v>
@@ -1348,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1358,7 +1910,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>